--- a/data/Class 6 - Examination Results.xlsx
+++ b/data/Class 6 - Examination Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Report-Card\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680498A8-1EFC-468B-8D18-3D6F40F02E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B54D895-8BC5-487E-8D47-04C9B6D7277A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="2790" windowWidth="20955" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4725" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="179">
   <si>
     <t>Student Details</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>05-12-2007</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -753,43 +756,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,6 +807,30 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,349 +1143,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0735A147-476A-4D70-94F4-05EADB0444FE}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y7" workbookViewId="0">
-      <selection sqref="A1:BA40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4" style="36" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5" style="36" customWidth="1"/>
-    <col min="46" max="46" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4" style="36" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5" style="28" customWidth="1"/>
+    <col min="46" max="46" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="15"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="12"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="18" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="19" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="18" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="19" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="23" t="s">
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="24" t="s">
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="20"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="15"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="V3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="Z3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AE3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="28" t="s">
+      <c r="AF3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="28" t="s">
+      <c r="AG3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="29" t="s">
+      <c r="AH3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AI3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="30" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="AL3" s="30" t="s">
+      <c r="AL3" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="AM3" s="30" t="s">
+      <c r="AM3" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AN3" s="30" t="s">
+      <c r="AN3" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AO3" s="31" t="s">
+      <c r="AO3" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="AP3" s="31" t="s">
+      <c r="AP3" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AQ3" s="31" t="s">
+      <c r="AQ3" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="AR3" s="31" t="s">
+      <c r="AR3" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="AS3" s="31" t="s">
+      <c r="AS3" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="AT3" s="31" t="s">
+      <c r="AT3" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="AU3" s="32" t="s">
+      <c r="AU3" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="AV3" s="32" t="s">
+      <c r="AV3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="AW3" s="32" t="s">
+      <c r="AW3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="AX3" s="32" t="s">
+      <c r="AX3" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="AY3" s="32" t="s">
+      <c r="AY3" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="AZ3" s="32" t="s">
+      <c r="AZ3" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="BA3" s="28" t="s">
+      <c r="BA3" s="20" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1591,79 +1597,79 @@
         <f t="shared" ref="AH4:AH14" si="1">ROUND(AG4/1200*100,0)</f>
         <v>75</v>
       </c>
-      <c r="AI4" s="33">
+      <c r="AI4" s="25">
         <f>(IF(I4="NA",0,IF(I4="Ab",0,I4)))+(IF(O4="NA",0,IF(O4="Ab",0,O4)))+(IF(U4="NA",0,IF(U4="Ab",0,U4)))+(IF(AA4="NA",0,IF(AA4="Ab",0,AA4)))</f>
         <v>165</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AJ4" s="25">
         <f t="shared" ref="AJ4:AN4" si="2">(IF(J4="NA",0,IF(J4="Ab",0,J4)))+(IF(P4="NA",0,IF(P4="Ab",0,P4)))+(IF(V4="NA",0,IF(V4="Ab",0,V4)))+(IF(AB4="NA",0,IF(AB4="Ab",0,AB4)))</f>
         <v>129</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AK4" s="25">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="25">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="AM4" s="33">
+      <c r="AM4" s="25">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="AN4" s="33">
+      <c r="AN4" s="25">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AO4" s="25">
         <f>ROUND(AI4/200*100,1)</f>
         <v>82.5</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AP4" s="25">
         <f t="shared" ref="AP4:AT4" si="3">ROUND(AJ4/200*100,1)</f>
         <v>64.5</v>
       </c>
-      <c r="AQ4" s="33">
+      <c r="AQ4" s="25">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="AR4" s="33">
+      <c r="AR4" s="25">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="AS4" s="33">
+      <c r="AS4" s="25">
         <f t="shared" si="3"/>
         <v>89.5</v>
       </c>
-      <c r="AT4" s="33">
+      <c r="AT4" s="25">
         <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="AU4" s="35" t="str">
+      <c r="AU4" s="27" t="str">
         <f>IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
         <v>A2</v>
       </c>
-      <c r="AV4" s="35" t="str">
+      <c r="AV4" s="27" t="str">
         <f t="shared" ref="AV4:AZ4" si="4">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
-      <c r="AW4" s="35" t="str">
+      <c r="AW4" s="27" t="str">
         <f t="shared" si="4"/>
         <v>A2</v>
       </c>
-      <c r="AX4" s="35" t="str">
+      <c r="AX4" s="27" t="str">
         <f t="shared" si="4"/>
         <v>C1</v>
       </c>
-      <c r="AY4" s="35" t="str">
+      <c r="AY4" s="27" t="str">
         <f t="shared" si="4"/>
         <v>A2</v>
       </c>
-      <c r="AZ4" s="35" t="str">
+      <c r="AZ4" s="27" t="str">
         <f t="shared" si="4"/>
         <v>B1</v>
       </c>
-      <c r="BA4" s="34">
+      <c r="BA4" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -1772,79 +1778,79 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="AI5" s="33">
+      <c r="AI5" s="25">
         <f t="shared" ref="AI5:AI40" si="5">(IF(I5="NA",0,IF(I5="Ab",0,I5)))+(IF(O5="NA",0,IF(O5="Ab",0,O5)))+(IF(U5="NA",0,IF(U5="Ab",0,U5)))+(IF(AA5="NA",0,IF(AA5="Ab",0,AA5)))</f>
         <v>104</v>
       </c>
-      <c r="AJ5" s="33">
+      <c r="AJ5" s="25">
         <f t="shared" ref="AJ5:AJ40" si="6">(IF(J5="NA",0,IF(J5="Ab",0,J5)))+(IF(P5="NA",0,IF(P5="Ab",0,P5)))+(IF(V5="NA",0,IF(V5="Ab",0,V5)))+(IF(AB5="NA",0,IF(AB5="Ab",0,AB5)))</f>
         <v>98</v>
       </c>
-      <c r="AK5" s="33">
+      <c r="AK5" s="25">
         <f t="shared" ref="AK5:AK40" si="7">(IF(K5="NA",0,IF(K5="Ab",0,K5)))+(IF(Q5="NA",0,IF(Q5="Ab",0,Q5)))+(IF(W5="NA",0,IF(W5="Ab",0,W5)))+(IF(AC5="NA",0,IF(AC5="Ab",0,AC5)))</f>
         <v>100</v>
       </c>
-      <c r="AL5" s="33">
+      <c r="AL5" s="25">
         <f t="shared" ref="AL5:AL40" si="8">(IF(L5="NA",0,IF(L5="Ab",0,L5)))+(IF(R5="NA",0,IF(R5="Ab",0,R5)))+(IF(X5="NA",0,IF(X5="Ab",0,X5)))+(IF(AD5="NA",0,IF(AD5="Ab",0,AD5)))</f>
         <v>113</v>
       </c>
-      <c r="AM5" s="33">
+      <c r="AM5" s="25">
         <f t="shared" ref="AM5:AM40" si="9">(IF(M5="NA",0,IF(M5="Ab",0,M5)))+(IF(S5="NA",0,IF(S5="Ab",0,S5)))+(IF(Y5="NA",0,IF(Y5="Ab",0,Y5)))+(IF(AE5="NA",0,IF(AE5="Ab",0,AE5)))</f>
         <v>118</v>
       </c>
-      <c r="AN5" s="33">
+      <c r="AN5" s="25">
         <f t="shared" ref="AN5:AN40" si="10">(IF(N5="NA",0,IF(N5="Ab",0,N5)))+(IF(T5="NA",0,IF(T5="Ab",0,T5)))+(IF(Z5="NA",0,IF(Z5="Ab",0,Z5)))+(IF(AF5="NA",0,IF(AF5="Ab",0,AF5)))</f>
         <v>107</v>
       </c>
-      <c r="AO5" s="33">
+      <c r="AO5" s="25">
         <f t="shared" ref="AO5:AO40" si="11">ROUND(AI5/200*100,1)</f>
         <v>52</v>
       </c>
-      <c r="AP5" s="33">
+      <c r="AP5" s="25">
         <f t="shared" ref="AP5:AP40" si="12">ROUND(AJ5/200*100,1)</f>
         <v>49</v>
       </c>
-      <c r="AQ5" s="33">
+      <c r="AQ5" s="25">
         <f t="shared" ref="AQ5:AQ40" si="13">ROUND(AK5/200*100,1)</f>
         <v>50</v>
       </c>
-      <c r="AR5" s="33">
+      <c r="AR5" s="25">
         <f t="shared" ref="AR5:AR40" si="14">ROUND(AL5/200*100,1)</f>
         <v>56.5</v>
       </c>
-      <c r="AS5" s="33">
+      <c r="AS5" s="25">
         <f t="shared" ref="AS5:AS40" si="15">ROUND(AM5/200*100,1)</f>
         <v>59</v>
       </c>
-      <c r="AT5" s="33">
+      <c r="AT5" s="25">
         <f t="shared" ref="AT5:AT40" si="16">ROUND(AN5/200*100,1)</f>
         <v>53.5</v>
       </c>
-      <c r="AU5" s="35" t="str">
+      <c r="AU5" s="27" t="str">
         <f t="shared" ref="AU5:AU40" si="17">IF(AO5&gt;90,"A1",IF(AO5&gt;80,"A2",IF(AO5&gt;70,"B1",IF(AO5&gt;60,"B2",IF(AO5&gt;50,"C1",IF(AO5&gt;40,"C2",IF(AO5&gt;32,"D","E")))))))</f>
         <v>C1</v>
       </c>
-      <c r="AV5" s="35" t="str">
+      <c r="AV5" s="27" t="str">
         <f t="shared" ref="AV5:AV40" si="18">IF(AP5&gt;90,"A1",IF(AP5&gt;80,"A2",IF(AP5&gt;70,"B1",IF(AP5&gt;60,"B2",IF(AP5&gt;50,"C1",IF(AP5&gt;40,"C2",IF(AP5&gt;32,"D","E")))))))</f>
         <v>C2</v>
       </c>
-      <c r="AW5" s="35" t="str">
+      <c r="AW5" s="27" t="str">
         <f t="shared" ref="AW5:AW40" si="19">IF(AQ5&gt;90,"A1",IF(AQ5&gt;80,"A2",IF(AQ5&gt;70,"B1",IF(AQ5&gt;60,"B2",IF(AQ5&gt;50,"C1",IF(AQ5&gt;40,"C2",IF(AQ5&gt;32,"D","E")))))))</f>
         <v>C2</v>
       </c>
-      <c r="AX5" s="35" t="str">
+      <c r="AX5" s="27" t="str">
         <f t="shared" ref="AX5:AX40" si="20">IF(AR5&gt;90,"A1",IF(AR5&gt;80,"A2",IF(AR5&gt;70,"B1",IF(AR5&gt;60,"B2",IF(AR5&gt;50,"C1",IF(AR5&gt;40,"C2",IF(AR5&gt;32,"D","E")))))))</f>
         <v>C1</v>
       </c>
-      <c r="AY5" s="35" t="str">
+      <c r="AY5" s="27" t="str">
         <f t="shared" ref="AY5:AY40" si="21">IF(AS5&gt;90,"A1",IF(AS5&gt;80,"A2",IF(AS5&gt;70,"B1",IF(AS5&gt;60,"B2",IF(AS5&gt;50,"C1",IF(AS5&gt;40,"C2",IF(AS5&gt;32,"D","E")))))))</f>
         <v>C1</v>
       </c>
-      <c r="AZ5" s="35" t="str">
+      <c r="AZ5" s="27" t="str">
         <f t="shared" ref="AZ5:AZ40" si="22">IF(AT5&gt;90,"A1",IF(AT5&gt;80,"A2",IF(AT5&gt;70,"B1",IF(AT5&gt;60,"B2",IF(AT5&gt;50,"C1",IF(AT5&gt;40,"C2",IF(AT5&gt;32,"D","E")))))))</f>
         <v>C1</v>
       </c>
-      <c r="BA5" s="34">
+      <c r="BA5" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -1953,79 +1959,79 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="AI6" s="33">
+      <c r="AI6" s="25">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="AJ6" s="33">
+      <c r="AJ6" s="25">
         <f t="shared" si="6"/>
         <v>173</v>
       </c>
-      <c r="AK6" s="33">
+      <c r="AK6" s="25">
         <f t="shared" si="7"/>
         <v>191</v>
       </c>
-      <c r="AL6" s="33">
+      <c r="AL6" s="25">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="AM6" s="33">
+      <c r="AM6" s="25">
         <f t="shared" si="9"/>
         <v>186</v>
       </c>
-      <c r="AN6" s="33">
+      <c r="AN6" s="25">
         <f t="shared" si="10"/>
         <v>184</v>
       </c>
-      <c r="AO6" s="33">
+      <c r="AO6" s="25">
         <f t="shared" si="11"/>
         <v>92.5</v>
       </c>
-      <c r="AP6" s="33">
+      <c r="AP6" s="25">
         <f t="shared" si="12"/>
         <v>86.5</v>
       </c>
-      <c r="AQ6" s="33">
+      <c r="AQ6" s="25">
         <f t="shared" si="13"/>
         <v>95.5</v>
       </c>
-      <c r="AR6" s="33">
+      <c r="AR6" s="25">
         <f t="shared" si="14"/>
         <v>73.5</v>
       </c>
-      <c r="AS6" s="33">
+      <c r="AS6" s="25">
         <f t="shared" si="15"/>
         <v>93</v>
       </c>
-      <c r="AT6" s="33">
+      <c r="AT6" s="25">
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
-      <c r="AU6" s="35" t="str">
+      <c r="AU6" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV6" s="35" t="str">
+      <c r="AV6" s="27" t="str">
         <f t="shared" si="18"/>
         <v>A2</v>
       </c>
-      <c r="AW6" s="35" t="str">
+      <c r="AW6" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX6" s="35" t="str">
+      <c r="AX6" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY6" s="35" t="str">
+      <c r="AY6" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ6" s="35" t="str">
+      <c r="AZ6" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A1</v>
       </c>
-      <c r="BA6" s="34">
+      <c r="BA6" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -2134,79 +2140,79 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="AI7" s="33">
+      <c r="AI7" s="25">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="AJ7" s="33">
+      <c r="AJ7" s="25">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="AK7" s="33">
+      <c r="AK7" s="25">
         <f t="shared" si="7"/>
         <v>143</v>
       </c>
-      <c r="AL7" s="33">
+      <c r="AL7" s="25">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
-      <c r="AM7" s="33">
+      <c r="AM7" s="25">
         <f t="shared" si="9"/>
         <v>159</v>
       </c>
-      <c r="AN7" s="33">
+      <c r="AN7" s="25">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
-      <c r="AO7" s="33">
+      <c r="AO7" s="25">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="25">
         <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="AQ7" s="33">
+      <c r="AQ7" s="25">
         <f t="shared" si="13"/>
         <v>71.5</v>
       </c>
-      <c r="AR7" s="33">
+      <c r="AR7" s="25">
         <f t="shared" si="14"/>
         <v>53.5</v>
       </c>
-      <c r="AS7" s="33">
+      <c r="AS7" s="25">
         <f t="shared" si="15"/>
         <v>79.5</v>
       </c>
-      <c r="AT7" s="33">
+      <c r="AT7" s="25">
         <f t="shared" si="16"/>
         <v>58</v>
       </c>
-      <c r="AU7" s="35" t="str">
+      <c r="AU7" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV7" s="35" t="str">
+      <c r="AV7" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW7" s="35" t="str">
+      <c r="AW7" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX7" s="35" t="str">
+      <c r="AX7" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY7" s="35" t="str">
+      <c r="AY7" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ7" s="35" t="str">
+      <c r="AZ7" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -2315,79 +2321,79 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AI8" s="25">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="AJ8" s="33">
+      <c r="AJ8" s="25">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="AK8" s="33">
+      <c r="AK8" s="25">
         <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AL8" s="25">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AM8" s="25">
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="AN8" s="33">
+      <c r="AN8" s="25">
         <f t="shared" si="10"/>
         <v>126</v>
       </c>
-      <c r="AO8" s="33">
+      <c r="AO8" s="25">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="AP8" s="33">
+      <c r="AP8" s="25">
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="AQ8" s="33">
+      <c r="AQ8" s="25">
         <f t="shared" si="13"/>
         <v>85.5</v>
       </c>
-      <c r="AR8" s="33">
+      <c r="AR8" s="25">
         <f t="shared" si="14"/>
         <v>62.5</v>
       </c>
-      <c r="AS8" s="33">
+      <c r="AS8" s="25">
         <f t="shared" si="15"/>
         <v>77.5</v>
       </c>
-      <c r="AT8" s="33">
+      <c r="AT8" s="25">
         <f t="shared" si="16"/>
         <v>63</v>
       </c>
-      <c r="AU8" s="35" t="str">
+      <c r="AU8" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B1</v>
       </c>
-      <c r="AV8" s="35" t="str">
+      <c r="AV8" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW8" s="35" t="str">
+      <c r="AW8" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX8" s="35" t="str">
+      <c r="AX8" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY8" s="35" t="str">
+      <c r="AY8" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ8" s="35" t="str">
+      <c r="AZ8" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BA8" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -2496,79 +2502,79 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="AI9" s="33">
+      <c r="AI9" s="25">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="AJ9" s="33">
+      <c r="AJ9" s="25">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="AK9" s="33">
+      <c r="AK9" s="25">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
-      <c r="AL9" s="33">
+      <c r="AL9" s="25">
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
-      <c r="AM9" s="33">
+      <c r="AM9" s="25">
         <f t="shared" si="9"/>
         <v>156</v>
       </c>
-      <c r="AN9" s="33">
+      <c r="AN9" s="25">
         <f t="shared" si="10"/>
         <v>135</v>
       </c>
-      <c r="AO9" s="33">
+      <c r="AO9" s="25">
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
-      <c r="AP9" s="33">
+      <c r="AP9" s="25">
         <f t="shared" si="12"/>
         <v>53</v>
       </c>
-      <c r="AQ9" s="33">
+      <c r="AQ9" s="25">
         <f t="shared" si="13"/>
         <v>68.5</v>
       </c>
-      <c r="AR9" s="33">
+      <c r="AR9" s="25">
         <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="AS9" s="33">
+      <c r="AS9" s="25">
         <f t="shared" si="15"/>
         <v>78</v>
       </c>
-      <c r="AT9" s="33">
+      <c r="AT9" s="25">
         <f t="shared" si="16"/>
         <v>67.5</v>
       </c>
-      <c r="AU9" s="35" t="str">
+      <c r="AU9" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV9" s="35" t="str">
+      <c r="AV9" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW9" s="35" t="str">
+      <c r="AW9" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX9" s="35" t="str">
+      <c r="AX9" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY9" s="35" t="str">
+      <c r="AY9" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ9" s="35" t="str">
+      <c r="AZ9" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA9" s="34">
+      <c r="BA9" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -2677,79 +2683,79 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="AI10" s="33">
+      <c r="AI10" s="25">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="AJ10" s="33">
+      <c r="AJ10" s="25">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="AK10" s="33">
+      <c r="AK10" s="25">
         <f t="shared" si="7"/>
         <v>129</v>
       </c>
-      <c r="AL10" s="33">
+      <c r="AL10" s="25">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
-      <c r="AM10" s="33">
+      <c r="AM10" s="25">
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="AN10" s="33">
+      <c r="AN10" s="25">
         <f t="shared" si="10"/>
         <v>126</v>
       </c>
-      <c r="AO10" s="33">
+      <c r="AO10" s="25">
         <f t="shared" si="11"/>
         <v>65.5</v>
       </c>
-      <c r="AP10" s="33">
+      <c r="AP10" s="25">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="AQ10" s="33">
+      <c r="AQ10" s="25">
         <f t="shared" si="13"/>
         <v>64.5</v>
       </c>
-      <c r="AR10" s="33">
+      <c r="AR10" s="25">
         <f t="shared" si="14"/>
         <v>54.5</v>
       </c>
-      <c r="AS10" s="33">
+      <c r="AS10" s="25">
         <f t="shared" si="15"/>
         <v>77.5</v>
       </c>
-      <c r="AT10" s="33">
+      <c r="AT10" s="25">
         <f t="shared" si="16"/>
         <v>63</v>
       </c>
-      <c r="AU10" s="35" t="str">
+      <c r="AU10" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV10" s="35" t="str">
+      <c r="AV10" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW10" s="35" t="str">
+      <c r="AW10" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX10" s="35" t="str">
+      <c r="AX10" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY10" s="35" t="str">
+      <c r="AY10" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ10" s="35" t="str">
+      <c r="AZ10" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA10" s="34">
+      <c r="BA10" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -2814,23 +2820,23 @@
       <c r="T11" s="7">
         <v>78</v>
       </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
+      <c r="U11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="AA11" s="8">
         <v>71</v>
@@ -2858,79 +2864,79 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="AI11" s="33">
+      <c r="AI11" s="25">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="AJ11" s="33">
+      <c r="AJ11" s="25">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="AK11" s="33">
+      <c r="AK11" s="25">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="AL11" s="33">
+      <c r="AL11" s="25">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="AM11" s="33">
+      <c r="AM11" s="25">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="AN11" s="33">
+      <c r="AN11" s="25">
         <f t="shared" si="10"/>
         <v>164</v>
       </c>
-      <c r="AO11" s="33">
+      <c r="AO11" s="25">
         <f t="shared" si="11"/>
         <v>63</v>
       </c>
-      <c r="AP11" s="33">
+      <c r="AP11" s="25">
         <f t="shared" si="12"/>
         <v>46.5</v>
       </c>
-      <c r="AQ11" s="33">
+      <c r="AQ11" s="25">
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="AR11" s="33">
+      <c r="AR11" s="25">
         <f t="shared" si="14"/>
         <v>63.5</v>
       </c>
-      <c r="AS11" s="33">
+      <c r="AS11" s="25">
         <f t="shared" si="15"/>
         <v>81.5</v>
       </c>
-      <c r="AT11" s="33">
+      <c r="AT11" s="25">
         <f t="shared" si="16"/>
         <v>82</v>
       </c>
-      <c r="AU11" s="35" t="str">
+      <c r="AU11" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV11" s="35" t="str">
+      <c r="AV11" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW11" s="35" t="str">
+      <c r="AW11" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX11" s="35" t="str">
+      <c r="AX11" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY11" s="35" t="str">
+      <c r="AY11" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ11" s="35" t="str">
+      <c r="AZ11" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA11" s="34">
+      <c r="BA11" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -3039,79 +3045,79 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="AI12" s="33">
+      <c r="AI12" s="25">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="AJ12" s="33">
+      <c r="AJ12" s="25">
         <f t="shared" si="6"/>
         <v>142</v>
       </c>
-      <c r="AK12" s="33">
+      <c r="AK12" s="25">
         <f t="shared" si="7"/>
         <v>182</v>
       </c>
-      <c r="AL12" s="33">
+      <c r="AL12" s="25">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="AM12" s="33">
+      <c r="AM12" s="25">
         <f t="shared" si="9"/>
         <v>179</v>
       </c>
-      <c r="AN12" s="33">
+      <c r="AN12" s="25">
         <f t="shared" si="10"/>
         <v>172</v>
       </c>
-      <c r="AO12" s="33">
+      <c r="AO12" s="25">
         <f t="shared" si="11"/>
         <v>87</v>
       </c>
-      <c r="AP12" s="33">
+      <c r="AP12" s="25">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="AQ12" s="33">
+      <c r="AQ12" s="25">
         <f t="shared" si="13"/>
         <v>91</v>
       </c>
-      <c r="AR12" s="33">
+      <c r="AR12" s="25">
         <f t="shared" si="14"/>
         <v>73.5</v>
       </c>
-      <c r="AS12" s="33">
+      <c r="AS12" s="25">
         <f t="shared" si="15"/>
         <v>89.5</v>
       </c>
-      <c r="AT12" s="33">
+      <c r="AT12" s="25">
         <f t="shared" si="16"/>
         <v>86</v>
       </c>
-      <c r="AU12" s="35" t="str">
+      <c r="AU12" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV12" s="35" t="str">
+      <c r="AV12" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW12" s="35" t="str">
+      <c r="AW12" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX12" s="35" t="str">
+      <c r="AX12" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY12" s="35" t="str">
+      <c r="AY12" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ12" s="35" t="str">
+      <c r="AZ12" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA12" s="34">
+      <c r="BA12" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -3220,79 +3226,79 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="AI13" s="33">
+      <c r="AI13" s="25">
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="AJ13" s="33">
+      <c r="AJ13" s="25">
         <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="AK13" s="33">
+      <c r="AK13" s="25">
         <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="AL13" s="33">
+      <c r="AL13" s="25">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="AM13" s="33">
+      <c r="AM13" s="25">
         <f t="shared" si="9"/>
         <v>189</v>
       </c>
-      <c r="AN13" s="33">
+      <c r="AN13" s="25">
         <f t="shared" si="10"/>
         <v>184</v>
       </c>
-      <c r="AO13" s="33">
+      <c r="AO13" s="25">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
-      <c r="AP13" s="33">
+      <c r="AP13" s="25">
         <f t="shared" si="12"/>
         <v>85.5</v>
       </c>
-      <c r="AQ13" s="33">
+      <c r="AQ13" s="25">
         <f t="shared" si="13"/>
         <v>97.5</v>
       </c>
-      <c r="AR13" s="33">
+      <c r="AR13" s="25">
         <f t="shared" si="14"/>
         <v>82</v>
       </c>
-      <c r="AS13" s="33">
+      <c r="AS13" s="25">
         <f t="shared" si="15"/>
         <v>94.5</v>
       </c>
-      <c r="AT13" s="33">
+      <c r="AT13" s="25">
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
-      <c r="AU13" s="35" t="str">
+      <c r="AU13" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV13" s="35" t="str">
+      <c r="AV13" s="27" t="str">
         <f t="shared" si="18"/>
         <v>A2</v>
       </c>
-      <c r="AW13" s="35" t="str">
+      <c r="AW13" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX13" s="35" t="str">
+      <c r="AX13" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY13" s="35" t="str">
+      <c r="AY13" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ13" s="35" t="str">
+      <c r="AZ13" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A1</v>
       </c>
-      <c r="BA13" s="34">
+      <c r="BA13" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -3401,79 +3407,79 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="AI14" s="33">
+      <c r="AI14" s="25">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="AJ14" s="33">
+      <c r="AJ14" s="25">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="AK14" s="33">
+      <c r="AK14" s="25">
         <f t="shared" si="7"/>
         <v>124</v>
       </c>
-      <c r="AL14" s="33">
+      <c r="AL14" s="25">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="AM14" s="33">
+      <c r="AM14" s="25">
         <f t="shared" si="9"/>
         <v>146</v>
       </c>
-      <c r="AN14" s="33">
+      <c r="AN14" s="25">
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
-      <c r="AO14" s="33">
+      <c r="AO14" s="25">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="AP14" s="33">
+      <c r="AP14" s="25">
         <f t="shared" si="12"/>
         <v>44</v>
       </c>
-      <c r="AQ14" s="33">
+      <c r="AQ14" s="25">
         <f t="shared" si="13"/>
         <v>62</v>
       </c>
-      <c r="AR14" s="33">
+      <c r="AR14" s="25">
         <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="AS14" s="33">
+      <c r="AS14" s="25">
         <f t="shared" si="15"/>
         <v>73</v>
       </c>
-      <c r="AT14" s="33">
+      <c r="AT14" s="25">
         <f t="shared" si="16"/>
         <v>59</v>
       </c>
-      <c r="AU14" s="35" t="str">
+      <c r="AU14" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV14" s="35" t="str">
+      <c r="AV14" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW14" s="35" t="str">
+      <c r="AW14" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX14" s="35" t="str">
+      <c r="AX14" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY14" s="35" t="str">
+      <c r="AY14" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ14" s="35" t="str">
+      <c r="AZ14" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA14" s="34">
+      <c r="BA14" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -3501,40 +3507,40 @@
         <v>65</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="U15" s="7">
         <v>13</v>
@@ -3580,79 +3586,79 @@
         <f>ROUND(AG15/600*100,0)</f>
         <v>33</v>
       </c>
-      <c r="AI15" s="33">
+      <c r="AI15" s="25">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="AJ15" s="33">
+      <c r="AJ15" s="25">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="AK15" s="33">
+      <c r="AK15" s="25">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="AL15" s="33">
+      <c r="AL15" s="25">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="AM15" s="33">
+      <c r="AM15" s="25">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="AN15" s="33">
+      <c r="AN15" s="25">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="AO15" s="33">
+      <c r="AO15" s="25">
         <f t="shared" si="11"/>
         <v>16.5</v>
       </c>
-      <c r="AP15" s="33">
+      <c r="AP15" s="25">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AQ15" s="33">
+      <c r="AQ15" s="25">
         <f t="shared" si="13"/>
         <v>11.5</v>
       </c>
-      <c r="AR15" s="33">
+      <c r="AR15" s="25">
         <f t="shared" si="14"/>
         <v>21.5</v>
       </c>
-      <c r="AS15" s="33">
+      <c r="AS15" s="25">
         <f t="shared" si="15"/>
         <v>23</v>
       </c>
-      <c r="AT15" s="33">
+      <c r="AT15" s="25">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="AU15" s="35" t="str">
+      <c r="AU15" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV15" s="35" t="str">
+      <c r="AV15" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW15" s="35" t="str">
+      <c r="AW15" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX15" s="35" t="str">
+      <c r="AX15" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY15" s="35" t="str">
+      <c r="AY15" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ15" s="35" t="str">
+      <c r="AZ15" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -3761,79 +3767,79 @@
         <f t="shared" ref="AH16:AH20" si="23">ROUND(AG16/1200*100,0)</f>
         <v>58</v>
       </c>
-      <c r="AI16" s="33">
+      <c r="AI16" s="25">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="AJ16" s="33">
+      <c r="AJ16" s="25">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="AK16" s="33">
+      <c r="AK16" s="25">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="AL16" s="33">
+      <c r="AL16" s="25">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="AM16" s="33">
+      <c r="AM16" s="25">
         <f t="shared" si="9"/>
         <v>154</v>
       </c>
-      <c r="AN16" s="33">
+      <c r="AN16" s="25">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="AO16" s="33">
+      <c r="AO16" s="25">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
-      <c r="AP16" s="33">
+      <c r="AP16" s="25">
         <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="AQ16" s="33">
+      <c r="AQ16" s="25">
         <f t="shared" si="13"/>
         <v>57.5</v>
       </c>
-      <c r="AR16" s="33">
+      <c r="AR16" s="25">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="AS16" s="33">
+      <c r="AS16" s="25">
         <f t="shared" si="15"/>
         <v>77</v>
       </c>
-      <c r="AT16" s="33">
+      <c r="AT16" s="25">
         <f t="shared" si="16"/>
         <v>53</v>
       </c>
-      <c r="AU16" s="35" t="str">
+      <c r="AU16" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV16" s="35" t="str">
+      <c r="AV16" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW16" s="35" t="str">
+      <c r="AW16" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX16" s="35" t="str">
+      <c r="AX16" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY16" s="35" t="str">
+      <c r="AY16" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ16" s="35" t="str">
+      <c r="AZ16" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA16" s="34">
+      <c r="BA16" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -3942,79 +3948,79 @@
         <f t="shared" si="23"/>
         <v>57</v>
       </c>
-      <c r="AI17" s="33">
+      <c r="AI17" s="25">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="AJ17" s="33">
+      <c r="AJ17" s="25">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="AK17" s="33">
+      <c r="AK17" s="25">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="AL17" s="33">
+      <c r="AL17" s="25">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="AM17" s="33">
+      <c r="AM17" s="25">
         <f t="shared" si="9"/>
         <v>136</v>
       </c>
-      <c r="AN17" s="33">
+      <c r="AN17" s="25">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="AO17" s="33">
+      <c r="AO17" s="25">
         <f t="shared" si="11"/>
         <v>53.5</v>
       </c>
-      <c r="AP17" s="33">
+      <c r="AP17" s="25">
         <f t="shared" si="12"/>
         <v>43</v>
       </c>
-      <c r="AQ17" s="33">
+      <c r="AQ17" s="25">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="AR17" s="33">
+      <c r="AR17" s="25">
         <f t="shared" si="14"/>
         <v>66.5</v>
       </c>
-      <c r="AS17" s="33">
+      <c r="AS17" s="25">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="AT17" s="33">
+      <c r="AT17" s="25">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AU17" s="35" t="str">
+      <c r="AU17" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV17" s="35" t="str">
+      <c r="AV17" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW17" s="35" t="str">
+      <c r="AW17" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX17" s="35" t="str">
+      <c r="AX17" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY17" s="35" t="str">
+      <c r="AY17" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ17" s="35" t="str">
+      <c r="AZ17" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA17" s="34">
+      <c r="BA17" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -4123,79 +4129,79 @@
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
-      <c r="AI18" s="33">
+      <c r="AI18" s="25">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="AJ18" s="33">
+      <c r="AJ18" s="25">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="AK18" s="33">
+      <c r="AK18" s="25">
         <f t="shared" si="7"/>
         <v>148</v>
       </c>
-      <c r="AL18" s="33">
+      <c r="AL18" s="25">
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="AM18" s="33">
+      <c r="AM18" s="25">
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="AN18" s="33">
+      <c r="AN18" s="25">
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="AO18" s="33">
+      <c r="AO18" s="25">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="AP18" s="33">
+      <c r="AP18" s="25">
         <f t="shared" si="12"/>
         <v>58.5</v>
       </c>
-      <c r="AQ18" s="33">
+      <c r="AQ18" s="25">
         <f t="shared" si="13"/>
         <v>74</v>
       </c>
-      <c r="AR18" s="33">
+      <c r="AR18" s="25">
         <f t="shared" si="14"/>
         <v>69.5</v>
       </c>
-      <c r="AS18" s="33">
+      <c r="AS18" s="25">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="AT18" s="33">
+      <c r="AT18" s="25">
         <f t="shared" si="16"/>
         <v>74.5</v>
       </c>
-      <c r="AU18" s="35" t="str">
+      <c r="AU18" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV18" s="35" t="str">
+      <c r="AV18" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW18" s="35" t="str">
+      <c r="AW18" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX18" s="35" t="str">
+      <c r="AX18" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY18" s="35" t="str">
+      <c r="AY18" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ18" s="35" t="str">
+      <c r="AZ18" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA18" s="34">
+      <c r="BA18" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -4304,79 +4310,79 @@
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
-      <c r="AI19" s="33">
+      <c r="AI19" s="25">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="AJ19" s="33">
+      <c r="AJ19" s="25">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="AK19" s="33">
+      <c r="AK19" s="25">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="AL19" s="33">
+      <c r="AL19" s="25">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AM19" s="33">
+      <c r="AM19" s="25">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="AN19" s="33">
+      <c r="AN19" s="25">
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
-      <c r="AO19" s="33">
+      <c r="AO19" s="25">
         <f t="shared" si="11"/>
         <v>53.5</v>
       </c>
-      <c r="AP19" s="33">
+      <c r="AP19" s="25">
         <f t="shared" si="12"/>
         <v>42.5</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="25">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="AR19" s="33">
+      <c r="AR19" s="25">
         <f t="shared" si="14"/>
         <v>49.5</v>
       </c>
-      <c r="AS19" s="33">
+      <c r="AS19" s="25">
         <f t="shared" si="15"/>
         <v>67.5</v>
       </c>
-      <c r="AT19" s="33">
+      <c r="AT19" s="25">
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="AU19" s="35" t="str">
+      <c r="AU19" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV19" s="35" t="str">
+      <c r="AV19" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW19" s="35" t="str">
+      <c r="AW19" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX19" s="35" t="str">
+      <c r="AX19" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C2</v>
       </c>
-      <c r="AY19" s="35" t="str">
+      <c r="AY19" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ19" s="35" t="str">
+      <c r="AZ19" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA19" s="34">
+      <c r="BA19" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -4485,79 +4491,79 @@
         <f t="shared" si="23"/>
         <v>64</v>
       </c>
-      <c r="AI20" s="33">
+      <c r="AI20" s="25">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="AJ20" s="33">
+      <c r="AJ20" s="25">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="AK20" s="33">
+      <c r="AK20" s="25">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
-      <c r="AL20" s="33">
+      <c r="AL20" s="25">
         <f t="shared" si="8"/>
         <v>123</v>
       </c>
-      <c r="AM20" s="33">
+      <c r="AM20" s="25">
         <f t="shared" si="9"/>
         <v>145</v>
       </c>
-      <c r="AN20" s="33">
+      <c r="AN20" s="25">
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
-      <c r="AO20" s="33">
+      <c r="AO20" s="25">
         <f t="shared" si="11"/>
         <v>68.5</v>
       </c>
-      <c r="AP20" s="33">
+      <c r="AP20" s="25">
         <f t="shared" si="12"/>
         <v>53.5</v>
       </c>
-      <c r="AQ20" s="33">
+      <c r="AQ20" s="25">
         <f t="shared" si="13"/>
         <v>68.5</v>
       </c>
-      <c r="AR20" s="33">
+      <c r="AR20" s="25">
         <f t="shared" si="14"/>
         <v>61.5</v>
       </c>
-      <c r="AS20" s="33">
+      <c r="AS20" s="25">
         <f t="shared" si="15"/>
         <v>72.5</v>
       </c>
-      <c r="AT20" s="33">
+      <c r="AT20" s="25">
         <f t="shared" si="16"/>
         <v>59</v>
       </c>
-      <c r="AU20" s="35" t="str">
+      <c r="AU20" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV20" s="35" t="str">
+      <c r="AV20" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW20" s="35" t="str">
+      <c r="AW20" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX20" s="35" t="str">
+      <c r="AX20" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY20" s="35" t="str">
+      <c r="AY20" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ20" s="35" t="str">
+      <c r="AZ20" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA20" s="34">
+      <c r="BA20" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -4585,58 +4591,58 @@
         <v>86</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="AA21" s="8">
         <v>30</v>
@@ -4664,79 +4670,79 @@
         <f>ROUND(AG21/600*100,0)</f>
         <v>36</v>
       </c>
-      <c r="AI21" s="33">
+      <c r="AI21" s="25">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AJ21" s="33">
+      <c r="AJ21" s="25">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="AK21" s="33">
+      <c r="AK21" s="25">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AL21" s="33">
+      <c r="AL21" s="25">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="AM21" s="33">
+      <c r="AM21" s="25">
         <f t="shared" si="9"/>
         <v>59</v>
       </c>
-      <c r="AN21" s="33">
+      <c r="AN21" s="25">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AO21" s="33">
+      <c r="AO21" s="25">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="AP21" s="33">
+      <c r="AP21" s="25">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="AQ21" s="33">
+      <c r="AQ21" s="25">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="AR21" s="33">
+      <c r="AR21" s="25">
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="AS21" s="33">
+      <c r="AS21" s="25">
         <f t="shared" si="15"/>
         <v>29.5</v>
       </c>
-      <c r="AT21" s="33">
+      <c r="AT21" s="25">
         <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
-      <c r="AU21" s="35" t="str">
+      <c r="AU21" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV21" s="35" t="str">
+      <c r="AV21" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW21" s="35" t="str">
+      <c r="AW21" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX21" s="35" t="str">
+      <c r="AX21" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY21" s="35" t="str">
+      <c r="AY21" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ21" s="35" t="str">
+      <c r="AZ21" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA21" s="34">
+      <c r="BA21" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -4845,79 +4851,79 @@
         <f t="shared" ref="AH22:AH30" si="24">ROUND(AG22/1200*100,0)</f>
         <v>54</v>
       </c>
-      <c r="AI22" s="33">
+      <c r="AI22" s="25">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="AJ22" s="33">
+      <c r="AJ22" s="25">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="AK22" s="33">
+      <c r="AK22" s="25">
         <f t="shared" si="7"/>
         <v>119</v>
       </c>
-      <c r="AL22" s="33">
+      <c r="AL22" s="25">
         <f t="shared" si="8"/>
         <v>123</v>
       </c>
-      <c r="AM22" s="33">
+      <c r="AM22" s="25">
         <f t="shared" si="9"/>
         <v>136</v>
       </c>
-      <c r="AN22" s="33">
+      <c r="AN22" s="25">
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="AO22" s="33">
+      <c r="AO22" s="25">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="AP22" s="33">
+      <c r="AP22" s="25">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="AQ22" s="33">
+      <c r="AQ22" s="25">
         <f t="shared" si="13"/>
         <v>59.5</v>
       </c>
-      <c r="AR22" s="33">
+      <c r="AR22" s="25">
         <f t="shared" si="14"/>
         <v>61.5</v>
       </c>
-      <c r="AS22" s="33">
+      <c r="AS22" s="25">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="AT22" s="33">
+      <c r="AT22" s="25">
         <f t="shared" si="16"/>
         <v>41.5</v>
       </c>
-      <c r="AU22" s="35" t="str">
+      <c r="AU22" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV22" s="35" t="str">
+      <c r="AV22" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW22" s="35" t="str">
+      <c r="AW22" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX22" s="35" t="str">
+      <c r="AX22" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY22" s="35" t="str">
+      <c r="AY22" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ22" s="35" t="str">
+      <c r="AZ22" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA22" s="34">
+      <c r="BA22" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -5026,79 +5032,79 @@
         <f t="shared" si="24"/>
         <v>84</v>
       </c>
-      <c r="AI23" s="33">
+      <c r="AI23" s="25">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="AJ23" s="33">
+      <c r="AJ23" s="25">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
-      <c r="AK23" s="33">
+      <c r="AK23" s="25">
         <f t="shared" si="7"/>
         <v>187</v>
       </c>
-      <c r="AL23" s="33">
+      <c r="AL23" s="25">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="AM23" s="33">
+      <c r="AM23" s="25">
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="AN23" s="33">
+      <c r="AN23" s="25">
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="AO23" s="33">
+      <c r="AO23" s="25">
         <f t="shared" si="11"/>
         <v>80.5</v>
       </c>
-      <c r="AP23" s="33">
+      <c r="AP23" s="25">
         <f t="shared" si="12"/>
         <v>81.5</v>
       </c>
-      <c r="AQ23" s="33">
+      <c r="AQ23" s="25">
         <f t="shared" si="13"/>
         <v>93.5</v>
       </c>
-      <c r="AR23" s="33">
+      <c r="AR23" s="25">
         <f t="shared" si="14"/>
         <v>82.5</v>
       </c>
-      <c r="AS23" s="33">
+      <c r="AS23" s="25">
         <f t="shared" si="15"/>
         <v>77.5</v>
       </c>
-      <c r="AT23" s="33">
+      <c r="AT23" s="25">
         <f t="shared" si="16"/>
         <v>90</v>
       </c>
-      <c r="AU23" s="35" t="str">
+      <c r="AU23" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV23" s="35" t="str">
+      <c r="AV23" s="27" t="str">
         <f t="shared" si="18"/>
         <v>A2</v>
       </c>
-      <c r="AW23" s="35" t="str">
+      <c r="AW23" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX23" s="35" t="str">
+      <c r="AX23" s="27" t="str">
         <f t="shared" si="20"/>
         <v>A2</v>
       </c>
-      <c r="AY23" s="35" t="str">
+      <c r="AY23" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ23" s="35" t="str">
+      <c r="AZ23" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA23" s="34">
+      <c r="BA23" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -5207,79 +5213,79 @@
         <f t="shared" si="24"/>
         <v>55</v>
       </c>
-      <c r="AI24" s="33">
+      <c r="AI24" s="25">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="AJ24" s="33">
+      <c r="AJ24" s="25">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="AK24" s="33">
+      <c r="AK24" s="25">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="AL24" s="33">
+      <c r="AL24" s="25">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
-      <c r="AM24" s="33">
+      <c r="AM24" s="25">
         <f t="shared" si="9"/>
         <v>142</v>
       </c>
-      <c r="AN24" s="33">
+      <c r="AN24" s="25">
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="AO24" s="33">
+      <c r="AO24" s="25">
         <f t="shared" si="11"/>
         <v>45.5</v>
       </c>
-      <c r="AP24" s="33">
+      <c r="AP24" s="25">
         <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="AQ24" s="33">
+      <c r="AQ24" s="25">
         <f t="shared" si="13"/>
         <v>65.5</v>
       </c>
-      <c r="AR24" s="33">
+      <c r="AR24" s="25">
         <f t="shared" si="14"/>
         <v>52</v>
       </c>
-      <c r="AS24" s="33">
+      <c r="AS24" s="25">
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
-      <c r="AT24" s="33">
+      <c r="AT24" s="25">
         <f t="shared" si="16"/>
         <v>39.5</v>
       </c>
-      <c r="AU24" s="35" t="str">
+      <c r="AU24" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV24" s="35" t="str">
+      <c r="AV24" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW24" s="35" t="str">
+      <c r="AW24" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B2</v>
       </c>
-      <c r="AX24" s="35" t="str">
+      <c r="AX24" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY24" s="35" t="str">
+      <c r="AY24" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ24" s="35" t="str">
+      <c r="AZ24" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA24" s="34">
+      <c r="BA24" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -5388,79 +5394,79 @@
         <f t="shared" si="24"/>
         <v>49</v>
       </c>
-      <c r="AI25" s="33">
+      <c r="AI25" s="25">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="AJ25" s="33">
+      <c r="AJ25" s="25">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="AK25" s="33">
+      <c r="AK25" s="25">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="AL25" s="33">
+      <c r="AL25" s="25">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="AM25" s="33">
+      <c r="AM25" s="25">
         <f t="shared" si="9"/>
         <v>111</v>
       </c>
-      <c r="AN25" s="33">
+      <c r="AN25" s="25">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="AO25" s="33">
+      <c r="AO25" s="25">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="AP25" s="33">
+      <c r="AP25" s="25">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="AQ25" s="33">
+      <c r="AQ25" s="25">
         <f t="shared" si="13"/>
         <v>41.5</v>
       </c>
-      <c r="AR25" s="33">
+      <c r="AR25" s="25">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="AS25" s="33">
+      <c r="AS25" s="25">
         <f t="shared" si="15"/>
         <v>55.5</v>
       </c>
-      <c r="AT25" s="33">
+      <c r="AT25" s="25">
         <f t="shared" si="16"/>
         <v>37.5</v>
       </c>
-      <c r="AU25" s="35" t="str">
+      <c r="AU25" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV25" s="35" t="str">
+      <c r="AV25" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW25" s="35" t="str">
+      <c r="AW25" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX25" s="35" t="str">
+      <c r="AX25" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY25" s="35" t="str">
+      <c r="AY25" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C1</v>
       </c>
-      <c r="AZ25" s="35" t="str">
+      <c r="AZ25" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA25" s="34">
+      <c r="BA25" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -5569,79 +5575,79 @@
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="AI26" s="33">
+      <c r="AI26" s="25">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="AJ26" s="33">
+      <c r="AJ26" s="25">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="AK26" s="33">
+      <c r="AK26" s="25">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="AL26" s="33">
+      <c r="AL26" s="25">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="AM26" s="33">
+      <c r="AM26" s="25">
         <f t="shared" si="9"/>
         <v>103</v>
       </c>
-      <c r="AN26" s="33">
+      <c r="AN26" s="25">
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="AO26" s="33">
+      <c r="AO26" s="25">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="AP26" s="33">
+      <c r="AP26" s="25">
         <f t="shared" si="12"/>
         <v>59.5</v>
       </c>
-      <c r="AQ26" s="33">
+      <c r="AQ26" s="25">
         <f t="shared" si="13"/>
         <v>42.5</v>
       </c>
-      <c r="AR26" s="33">
+      <c r="AR26" s="25">
         <f t="shared" si="14"/>
         <v>63.5</v>
       </c>
-      <c r="AS26" s="33">
+      <c r="AS26" s="25">
         <f t="shared" si="15"/>
         <v>51.5</v>
       </c>
-      <c r="AT26" s="33">
+      <c r="AT26" s="25">
         <f t="shared" si="16"/>
         <v>38.5</v>
       </c>
-      <c r="AU26" s="35" t="str">
+      <c r="AU26" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV26" s="35" t="str">
+      <c r="AV26" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW26" s="35" t="str">
+      <c r="AW26" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX26" s="35" t="str">
+      <c r="AX26" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY26" s="35" t="str">
+      <c r="AY26" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C1</v>
       </c>
-      <c r="AZ26" s="35" t="str">
+      <c r="AZ26" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA26" s="34">
+      <c r="BA26" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -5750,79 +5756,79 @@
         <f t="shared" si="24"/>
         <v>56</v>
       </c>
-      <c r="AI27" s="33">
+      <c r="AI27" s="25">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="AJ27" s="33">
+      <c r="AJ27" s="25">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="AK27" s="33">
+      <c r="AK27" s="25">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="AL27" s="33">
+      <c r="AL27" s="25">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="AM27" s="33">
+      <c r="AM27" s="25">
         <f t="shared" si="9"/>
         <v>143</v>
       </c>
-      <c r="AN27" s="33">
+      <c r="AN27" s="25">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
-      <c r="AO27" s="33">
+      <c r="AO27" s="25">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="AP27" s="33">
+      <c r="AP27" s="25">
         <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="AQ27" s="33">
+      <c r="AQ27" s="25">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="AR27" s="33">
+      <c r="AR27" s="25">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="AS27" s="33">
+      <c r="AS27" s="25">
         <f t="shared" si="15"/>
         <v>71.5</v>
       </c>
-      <c r="AT27" s="33">
+      <c r="AT27" s="25">
         <f t="shared" si="16"/>
         <v>58</v>
       </c>
-      <c r="AU27" s="35" t="str">
+      <c r="AU27" s="27" t="str">
         <f t="shared" si="17"/>
         <v>D</v>
       </c>
-      <c r="AV27" s="35" t="str">
+      <c r="AV27" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW27" s="35" t="str">
+      <c r="AW27" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX27" s="35" t="str">
+      <c r="AX27" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY27" s="35" t="str">
+      <c r="AY27" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="AZ27" s="35" t="str">
+      <c r="AZ27" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA27" s="34">
+      <c r="BA27" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -5931,79 +5937,79 @@
         <f t="shared" si="24"/>
         <v>72</v>
       </c>
-      <c r="AI28" s="33">
+      <c r="AI28" s="25">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="AJ28" s="33">
+      <c r="AJ28" s="25">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="AK28" s="33">
+      <c r="AK28" s="25">
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
-      <c r="AL28" s="33">
+      <c r="AL28" s="25">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="AM28" s="33">
+      <c r="AM28" s="25">
         <f t="shared" si="9"/>
         <v>165</v>
       </c>
-      <c r="AN28" s="33">
+      <c r="AN28" s="25">
         <f t="shared" si="10"/>
         <v>126</v>
       </c>
-      <c r="AO28" s="33">
+      <c r="AO28" s="25">
         <f t="shared" si="11"/>
         <v>74.5</v>
       </c>
-      <c r="AP28" s="33">
+      <c r="AP28" s="25">
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="AQ28" s="33">
+      <c r="AQ28" s="25">
         <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="AR28" s="33">
+      <c r="AR28" s="25">
         <f t="shared" si="14"/>
         <v>71</v>
       </c>
-      <c r="AS28" s="33">
+      <c r="AS28" s="25">
         <f t="shared" si="15"/>
         <v>82.5</v>
       </c>
-      <c r="AT28" s="33">
+      <c r="AT28" s="25">
         <f t="shared" si="16"/>
         <v>63</v>
       </c>
-      <c r="AU28" s="35" t="str">
+      <c r="AU28" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B1</v>
       </c>
-      <c r="AV28" s="35" t="str">
+      <c r="AV28" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW28" s="35" t="str">
+      <c r="AW28" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX28" s="35" t="str">
+      <c r="AX28" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY28" s="35" t="str">
+      <c r="AY28" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ28" s="35" t="str">
+      <c r="AZ28" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA28" s="34">
+      <c r="BA28" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -6112,79 +6118,79 @@
         <f t="shared" si="24"/>
         <v>54</v>
       </c>
-      <c r="AI29" s="33">
+      <c r="AI29" s="25">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="AJ29" s="33">
+      <c r="AJ29" s="25">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="AK29" s="33">
+      <c r="AK29" s="25">
         <f t="shared" si="7"/>
         <v>118</v>
       </c>
-      <c r="AL29" s="33">
+      <c r="AL29" s="25">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="AM29" s="33">
+      <c r="AM29" s="25">
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="AN29" s="33">
+      <c r="AN29" s="25">
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
-      <c r="AO29" s="33">
+      <c r="AO29" s="25">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="AP29" s="33">
+      <c r="AP29" s="25">
         <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="AQ29" s="33">
+      <c r="AQ29" s="25">
         <f t="shared" si="13"/>
         <v>59</v>
       </c>
-      <c r="AR29" s="33">
+      <c r="AR29" s="25">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="AS29" s="33">
+      <c r="AS29" s="25">
         <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="AT29" s="33">
+      <c r="AT29" s="25">
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="AU29" s="35" t="str">
+      <c r="AU29" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV29" s="35" t="str">
+      <c r="AV29" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW29" s="35" t="str">
+      <c r="AW29" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX29" s="35" t="str">
+      <c r="AX29" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C2</v>
       </c>
-      <c r="AY29" s="35" t="str">
+      <c r="AY29" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ29" s="35" t="str">
+      <c r="AZ29" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="BA29" s="34">
+      <c r="BA29" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -6293,79 +6299,79 @@
         <f t="shared" si="24"/>
         <v>21</v>
       </c>
-      <c r="AI30" s="33">
+      <c r="AI30" s="25">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="AJ30" s="33">
+      <c r="AJ30" s="25">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="AK30" s="33">
+      <c r="AK30" s="25">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="AL30" s="33">
+      <c r="AL30" s="25">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="AM30" s="33">
+      <c r="AM30" s="25">
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="AN30" s="33">
+      <c r="AN30" s="25">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="AO30" s="33">
+      <c r="AO30" s="25">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="AP30" s="33">
+      <c r="AP30" s="25">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="AQ30" s="33">
+      <c r="AQ30" s="25">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AR30" s="33">
+      <c r="AR30" s="25">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="AS30" s="33">
+      <c r="AS30" s="25">
         <f t="shared" si="15"/>
         <v>41.5</v>
       </c>
-      <c r="AT30" s="33">
+      <c r="AT30" s="25">
         <f t="shared" si="16"/>
         <v>15.5</v>
       </c>
-      <c r="AU30" s="35" t="str">
+      <c r="AU30" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV30" s="35" t="str">
+      <c r="AV30" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW30" s="35" t="str">
+      <c r="AW30" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX30" s="35" t="str">
+      <c r="AX30" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY30" s="35" t="str">
+      <c r="AY30" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C2</v>
       </c>
-      <c r="AZ30" s="35" t="str">
+      <c r="AZ30" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA30" s="34">
+      <c r="BA30" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -6474,79 +6480,79 @@
         <f>ROUND(AG31/600*100,0)</f>
         <v>35</v>
       </c>
-      <c r="AI31" s="33">
+      <c r="AI31" s="25">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AJ31" s="33">
+      <c r="AJ31" s="25">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="AK31" s="33">
+      <c r="AK31" s="25">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="AL31" s="33">
+      <c r="AL31" s="25">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="AM31" s="33">
+      <c r="AM31" s="25">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="AN31" s="33">
+      <c r="AN31" s="25">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="AO31" s="33">
+      <c r="AO31" s="25">
         <f t="shared" si="11"/>
         <v>17.5</v>
       </c>
-      <c r="AP31" s="33">
+      <c r="AP31" s="25">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AQ31" s="33">
+      <c r="AQ31" s="25">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="AR31" s="33">
+      <c r="AR31" s="25">
         <f t="shared" si="14"/>
         <v>22.5</v>
       </c>
-      <c r="AS31" s="33">
+      <c r="AS31" s="25">
         <f t="shared" si="15"/>
         <v>24.5</v>
       </c>
-      <c r="AT31" s="33">
+      <c r="AT31" s="25">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AU31" s="35" t="str">
+      <c r="AU31" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV31" s="35" t="str">
+      <c r="AV31" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW31" s="35" t="str">
+      <c r="AW31" s="27" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="AX31" s="35" t="str">
+      <c r="AX31" s="27" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="AY31" s="35" t="str">
+      <c r="AY31" s="27" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
-      <c r="AZ31" s="35" t="str">
+      <c r="AZ31" s="27" t="str">
         <f t="shared" si="22"/>
         <v>E</v>
       </c>
-      <c r="BA31" s="34">
+      <c r="BA31" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -6655,79 +6661,79 @@
         <f t="shared" ref="AH32:AH40" si="25">ROUND(AG32/1200*100,0)</f>
         <v>82</v>
       </c>
-      <c r="AI32" s="33">
+      <c r="AI32" s="25">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="AJ32" s="33">
+      <c r="AJ32" s="25">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="AK32" s="33">
+      <c r="AK32" s="25">
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
-      <c r="AL32" s="33">
+      <c r="AL32" s="25">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="AM32" s="33">
+      <c r="AM32" s="25">
         <f t="shared" si="9"/>
         <v>185</v>
       </c>
-      <c r="AN32" s="33">
+      <c r="AN32" s="25">
         <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="AO32" s="33">
+      <c r="AO32" s="25">
         <f t="shared" si="11"/>
         <v>82.5</v>
       </c>
-      <c r="AP32" s="33">
+      <c r="AP32" s="25">
         <f t="shared" si="12"/>
         <v>67.5</v>
       </c>
-      <c r="AQ32" s="33">
+      <c r="AQ32" s="25">
         <f t="shared" si="13"/>
         <v>86</v>
       </c>
-      <c r="AR32" s="33">
+      <c r="AR32" s="25">
         <f t="shared" si="14"/>
         <v>73.5</v>
       </c>
-      <c r="AS32" s="33">
+      <c r="AS32" s="25">
         <f t="shared" si="15"/>
         <v>92.5</v>
       </c>
-      <c r="AT32" s="33">
+      <c r="AT32" s="25">
         <f t="shared" si="16"/>
         <v>87.5</v>
       </c>
-      <c r="AU32" s="35" t="str">
+      <c r="AU32" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV32" s="35" t="str">
+      <c r="AV32" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW32" s="35" t="str">
+      <c r="AW32" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX32" s="35" t="str">
+      <c r="AX32" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY32" s="35" t="str">
+      <c r="AY32" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ32" s="35" t="str">
+      <c r="AZ32" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA32" s="34">
+      <c r="BA32" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -6836,79 +6842,79 @@
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="AI33" s="33">
+      <c r="AI33" s="25">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
-      <c r="AJ33" s="33">
+      <c r="AJ33" s="25">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="AK33" s="33">
+      <c r="AK33" s="25">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
-      <c r="AL33" s="33">
+      <c r="AL33" s="25">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="AM33" s="33">
+      <c r="AM33" s="25">
         <f t="shared" si="9"/>
         <v>184</v>
       </c>
-      <c r="AN33" s="33">
+      <c r="AN33" s="25">
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
-      <c r="AO33" s="33">
+      <c r="AO33" s="25">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="AP33" s="33">
+      <c r="AP33" s="25">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="AQ33" s="33">
+      <c r="AQ33" s="25">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="AR33" s="33">
+      <c r="AR33" s="25">
         <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="AS33" s="33">
+      <c r="AS33" s="25">
         <f t="shared" si="15"/>
         <v>92</v>
       </c>
-      <c r="AT33" s="33">
+      <c r="AT33" s="25">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="AU33" s="35" t="str">
+      <c r="AU33" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV33" s="35" t="str">
+      <c r="AV33" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW33" s="35" t="str">
+      <c r="AW33" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX33" s="35" t="str">
+      <c r="AX33" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY33" s="35" t="str">
+      <c r="AY33" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ33" s="35" t="str">
+      <c r="AZ33" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA33" s="34">
+      <c r="BA33" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -7017,79 +7023,79 @@
         <f t="shared" si="25"/>
         <v>85</v>
       </c>
-      <c r="AI34" s="33">
+      <c r="AI34" s="25">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="AJ34" s="33">
+      <c r="AJ34" s="25">
         <f t="shared" si="6"/>
         <v>151</v>
       </c>
-      <c r="AK34" s="33">
+      <c r="AK34" s="25">
         <f t="shared" si="7"/>
         <v>188</v>
       </c>
-      <c r="AL34" s="33">
+      <c r="AL34" s="25">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="AM34" s="33">
+      <c r="AM34" s="25">
         <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="AN34" s="33">
+      <c r="AN34" s="25">
         <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="AO34" s="33">
+      <c r="AO34" s="25">
         <f t="shared" si="11"/>
         <v>82</v>
       </c>
-      <c r="AP34" s="33">
+      <c r="AP34" s="25">
         <f t="shared" si="12"/>
         <v>75.5</v>
       </c>
-      <c r="AQ34" s="33">
+      <c r="AQ34" s="25">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="AR34" s="33">
+      <c r="AR34" s="25">
         <f t="shared" si="14"/>
         <v>73.5</v>
       </c>
-      <c r="AS34" s="33">
+      <c r="AS34" s="25">
         <f t="shared" si="15"/>
         <v>95</v>
       </c>
-      <c r="AT34" s="33">
+      <c r="AT34" s="25">
         <f t="shared" si="16"/>
         <v>87.5</v>
       </c>
-      <c r="AU34" s="35" t="str">
+      <c r="AU34" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV34" s="35" t="str">
+      <c r="AV34" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW34" s="35" t="str">
+      <c r="AW34" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A1</v>
       </c>
-      <c r="AX34" s="35" t="str">
+      <c r="AX34" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B1</v>
       </c>
-      <c r="AY34" s="35" t="str">
+      <c r="AY34" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ34" s="35" t="str">
+      <c r="AZ34" s="27" t="str">
         <f t="shared" si="22"/>
         <v>A2</v>
       </c>
-      <c r="BA34" s="34">
+      <c r="BA34" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -7198,79 +7204,79 @@
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="AI35" s="33">
+      <c r="AI35" s="25">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="AJ35" s="33">
+      <c r="AJ35" s="25">
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="AK35" s="33">
+      <c r="AK35" s="25">
         <f t="shared" si="7"/>
         <v>174</v>
       </c>
-      <c r="AL35" s="33">
+      <c r="AL35" s="25">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="AM35" s="33">
+      <c r="AM35" s="25">
         <f t="shared" si="9"/>
         <v>181</v>
       </c>
-      <c r="AN35" s="33">
+      <c r="AN35" s="25">
         <f t="shared" si="10"/>
         <v>159</v>
       </c>
-      <c r="AO35" s="33">
+      <c r="AO35" s="25">
         <f t="shared" si="11"/>
         <v>82.5</v>
       </c>
-      <c r="AP35" s="33">
+      <c r="AP35" s="25">
         <f t="shared" si="12"/>
         <v>69.5</v>
       </c>
-      <c r="AQ35" s="33">
+      <c r="AQ35" s="25">
         <f t="shared" si="13"/>
         <v>87</v>
       </c>
-      <c r="AR35" s="33">
+      <c r="AR35" s="25">
         <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="AS35" s="33">
+      <c r="AS35" s="25">
         <f t="shared" si="15"/>
         <v>90.5</v>
       </c>
-      <c r="AT35" s="33">
+      <c r="AT35" s="25">
         <f t="shared" si="16"/>
         <v>79.5</v>
       </c>
-      <c r="AU35" s="35" t="str">
+      <c r="AU35" s="27" t="str">
         <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV35" s="35" t="str">
+      <c r="AV35" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW35" s="35" t="str">
+      <c r="AW35" s="27" t="str">
         <f t="shared" si="19"/>
         <v>A2</v>
       </c>
-      <c r="AX35" s="35" t="str">
+      <c r="AX35" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY35" s="35" t="str">
+      <c r="AY35" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A1</v>
       </c>
-      <c r="AZ35" s="35" t="str">
+      <c r="AZ35" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA35" s="34">
+      <c r="BA35" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -7297,29 +7303,29 @@
       <c r="H36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
+      <c r="I36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="O36" s="7">
         <v>26</v>
       </c>
-      <c r="P36" s="7">
-        <v>0</v>
+      <c r="P36" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="Q36" s="7">
         <v>53</v>
@@ -7377,79 +7383,79 @@
         <f t="shared" si="25"/>
         <v>39</v>
       </c>
-      <c r="AI36" s="33">
+      <c r="AI36" s="25">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="AJ36" s="33">
+      <c r="AJ36" s="25">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="AK36" s="33">
+      <c r="AK36" s="25">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="AL36" s="33">
+      <c r="AL36" s="25">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
-      <c r="AM36" s="33">
+      <c r="AM36" s="25">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="AN36" s="33">
+      <c r="AN36" s="25">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="AO36" s="33">
+      <c r="AO36" s="25">
         <f t="shared" si="11"/>
         <v>29.5</v>
       </c>
-      <c r="AP36" s="33">
+      <c r="AP36" s="25">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="AQ36" s="33">
+      <c r="AQ36" s="25">
         <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="AR36" s="33">
+      <c r="AR36" s="25">
         <f t="shared" si="14"/>
         <v>59</v>
       </c>
-      <c r="AS36" s="33">
+      <c r="AS36" s="25">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AT36" s="33">
+      <c r="AT36" s="25">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="AU36" s="35" t="str">
+      <c r="AU36" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV36" s="35" t="str">
+      <c r="AV36" s="27" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
-      <c r="AW36" s="35" t="str">
+      <c r="AW36" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX36" s="35" t="str">
+      <c r="AX36" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY36" s="35" t="str">
+      <c r="AY36" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C2</v>
       </c>
-      <c r="AZ36" s="35" t="str">
+      <c r="AZ36" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA36" s="34">
+      <c r="BA36" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -7558,79 +7564,79 @@
         <f t="shared" si="25"/>
         <v>65</v>
       </c>
-      <c r="AI37" s="33">
+      <c r="AI37" s="25">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="AJ37" s="33">
+      <c r="AJ37" s="25">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="AK37" s="33">
+      <c r="AK37" s="25">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="AL37" s="33">
+      <c r="AL37" s="25">
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
-      <c r="AM37" s="33">
+      <c r="AM37" s="25">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AN37" s="33">
+      <c r="AN37" s="25">
         <f t="shared" si="10"/>
         <v>138</v>
       </c>
-      <c r="AO37" s="33">
+      <c r="AO37" s="25">
         <f t="shared" si="11"/>
         <v>62.5</v>
       </c>
-      <c r="AP37" s="33">
+      <c r="AP37" s="25">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="AQ37" s="33">
+      <c r="AQ37" s="25">
         <f t="shared" si="13"/>
         <v>72</v>
       </c>
-      <c r="AR37" s="33">
+      <c r="AR37" s="25">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="AS37" s="33">
+      <c r="AS37" s="25">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="AT37" s="33">
+      <c r="AT37" s="25">
         <f t="shared" si="16"/>
         <v>69</v>
       </c>
-      <c r="AU37" s="35" t="str">
+      <c r="AU37" s="27" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV37" s="35" t="str">
+      <c r="AV37" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C1</v>
       </c>
-      <c r="AW37" s="35" t="str">
+      <c r="AW37" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX37" s="35" t="str">
+      <c r="AX37" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY37" s="35" t="str">
+      <c r="AY37" s="27" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="AZ37" s="35" t="str">
+      <c r="AZ37" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B2</v>
       </c>
-      <c r="BA37" s="34">
+      <c r="BA37" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -7739,79 +7745,79 @@
         <f t="shared" si="25"/>
         <v>53</v>
       </c>
-      <c r="AI38" s="33">
+      <c r="AI38" s="25">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="AJ38" s="33">
+      <c r="AJ38" s="25">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="AK38" s="33">
+      <c r="AK38" s="25">
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="AL38" s="33">
+      <c r="AL38" s="25">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
-      <c r="AM38" s="33">
+      <c r="AM38" s="25">
         <f t="shared" si="9"/>
         <v>118</v>
       </c>
-      <c r="AN38" s="33">
+      <c r="AN38" s="25">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="AO38" s="33">
+      <c r="AO38" s="25">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="AP38" s="33">
+      <c r="AP38" s="25">
         <f t="shared" si="12"/>
         <v>61</v>
       </c>
-      <c r="AQ38" s="33">
+      <c r="AQ38" s="25">
         <f t="shared" si="13"/>
         <v>48.5</v>
       </c>
-      <c r="AR38" s="33">
+      <c r="AR38" s="25">
         <f t="shared" si="14"/>
         <v>54.5</v>
       </c>
-      <c r="AS38" s="33">
+      <c r="AS38" s="25">
         <f t="shared" si="15"/>
         <v>59</v>
       </c>
-      <c r="AT38" s="33">
+      <c r="AT38" s="25">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
-      <c r="AU38" s="35" t="str">
+      <c r="AU38" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C2</v>
       </c>
-      <c r="AV38" s="35" t="str">
+      <c r="AV38" s="27" t="str">
         <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW38" s="35" t="str">
+      <c r="AW38" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX38" s="35" t="str">
+      <c r="AX38" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C1</v>
       </c>
-      <c r="AY38" s="35" t="str">
+      <c r="AY38" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C1</v>
       </c>
-      <c r="AZ38" s="35" t="str">
+      <c r="AZ38" s="27" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="BA38" s="34">
+      <c r="BA38" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -7920,79 +7926,79 @@
         <f t="shared" si="25"/>
         <v>41</v>
       </c>
-      <c r="AI39" s="33">
+      <c r="AI39" s="25">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="AJ39" s="33">
+      <c r="AJ39" s="25">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="AK39" s="33">
+      <c r="AK39" s="25">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="AL39" s="33">
+      <c r="AL39" s="25">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="AM39" s="33">
+      <c r="AM39" s="25">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="AN39" s="33">
+      <c r="AN39" s="25">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="AO39" s="33">
+      <c r="AO39" s="25">
         <f t="shared" si="11"/>
         <v>29.5</v>
       </c>
-      <c r="AP39" s="33">
+      <c r="AP39" s="25">
         <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="AQ39" s="33">
+      <c r="AQ39" s="25">
         <f t="shared" si="13"/>
         <v>43.5</v>
       </c>
-      <c r="AR39" s="33">
+      <c r="AR39" s="25">
         <f t="shared" si="14"/>
         <v>46.5</v>
       </c>
-      <c r="AS39" s="33">
+      <c r="AS39" s="25">
         <f t="shared" si="15"/>
         <v>54</v>
       </c>
-      <c r="AT39" s="33">
+      <c r="AT39" s="25">
         <f t="shared" si="16"/>
         <v>36.5</v>
       </c>
-      <c r="AU39" s="35" t="str">
+      <c r="AU39" s="27" t="str">
         <f t="shared" si="17"/>
         <v>E</v>
       </c>
-      <c r="AV39" s="35" t="str">
+      <c r="AV39" s="27" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
-      <c r="AW39" s="35" t="str">
+      <c r="AW39" s="27" t="str">
         <f t="shared" si="19"/>
         <v>C2</v>
       </c>
-      <c r="AX39" s="35" t="str">
+      <c r="AX39" s="27" t="str">
         <f t="shared" si="20"/>
         <v>C2</v>
       </c>
-      <c r="AY39" s="35" t="str">
+      <c r="AY39" s="27" t="str">
         <f t="shared" si="21"/>
         <v>C1</v>
       </c>
-      <c r="AZ39" s="35" t="str">
+      <c r="AZ39" s="27" t="str">
         <f t="shared" si="22"/>
         <v>D</v>
       </c>
-      <c r="BA39" s="34">
+      <c r="BA39" s="26">
         <v>1200</v>
       </c>
     </row>
@@ -8101,79 +8107,79 @@
         <f t="shared" si="25"/>
         <v>69</v>
       </c>
-      <c r="AI40" s="33">
+      <c r="AI40" s="25">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="AJ40" s="33">
+      <c r="AJ40" s="25">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="AK40" s="33">
+      <c r="AK40" s="25">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="AL40" s="33">
+      <c r="AL40" s="25">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="AM40" s="33">
+      <c r="AM40" s="25">
         <f t="shared" si="9"/>
         <v>171</v>
       </c>
-      <c r="AN40" s="33">
+      <c r="AN40" s="25">
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="AO40" s="33">
+      <c r="AO40" s="25">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="AP40" s="33">
+      <c r="AP40" s="25">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AQ40" s="33">
+      <c r="AQ40" s="25">
         <f t="shared" si="13"/>
         <v>76</v>
       </c>
-      <c r="AR40" s="33">
+      <c r="AR40" s="25">
         <f t="shared" si="14"/>
         <v>67.5</v>
       </c>
-      <c r="AS40" s="33">
+      <c r="AS40" s="25">
         <f t="shared" si="15"/>
         <v>85.5</v>
       </c>
-      <c r="AT40" s="33">
+      <c r="AT40" s="25">
         <f t="shared" si="16"/>
         <v>73</v>
       </c>
-      <c r="AU40" s="35" t="str">
+      <c r="AU40" s="27" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV40" s="35" t="str">
+      <c r="AV40" s="27" t="str">
         <f t="shared" si="18"/>
         <v>C2</v>
       </c>
-      <c r="AW40" s="35" t="str">
+      <c r="AW40" s="27" t="str">
         <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX40" s="35" t="str">
+      <c r="AX40" s="27" t="str">
         <f t="shared" si="20"/>
         <v>B2</v>
       </c>
-      <c r="AY40" s="35" t="str">
+      <c r="AY40" s="27" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="AZ40" s="35" t="str">
+      <c r="AZ40" s="27" t="str">
         <f t="shared" si="22"/>
         <v>B1</v>
       </c>
-      <c r="BA40" s="34">
+      <c r="BA40" s="26">
         <v>1200</v>
       </c>
     </row>
